--- a/Shannon/Shannon/Samples/Porownanie.xlsx
+++ b/Shannon/Shannon/Samples/Porownanie.xlsx
@@ -47,12 +47,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Użytkownik systemu Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Użytkownik systemu Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
   <si>
     <t>Genomic change</t>
   </si>
@@ -574,6 +626,18 @@
   </si>
   <si>
     <t>5 mutations/7 peaks</t>
+  </si>
+  <si>
+    <t>MT510728.1</t>
+  </si>
+  <si>
+    <t>2mutations/5 peaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW421993.1 </t>
+  </si>
+  <si>
+    <t>6 mutations/10 peaks</t>
   </si>
 </sst>
 </file>
@@ -786,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -837,6 +901,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,9 +1218,13 @@
     <col min="11" max="11" width="31.7109375" customWidth="1"/>
     <col min="12" max="12" width="26.140625" customWidth="1"/>
     <col min="16" max="16" width="32.140625" customWidth="1"/>
+    <col min="17" max="17" width="29.42578125" customWidth="1"/>
+    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" customWidth="1"/>
+    <col min="26" max="26" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,9 +1270,39 @@
       <c r="P1" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="Q1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B2" s="2"/>
@@ -1230,8 +1331,30 @@
       <c r="P2" s="16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="7">
+        <v>6</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="7">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1261,8 +1384,22 @@
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="5"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="13">
+        <v>1.46</v>
+      </c>
+      <c r="X3" s="13">
+        <v>14407</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1292,8 +1429,22 @@
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="13">
+        <v>1.92</v>
+      </c>
+      <c r="X4" s="13">
+        <v>23398</v>
+      </c>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1323,8 +1474,22 @@
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="X5" s="13">
+        <v>240</v>
+      </c>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,8 +1515,22 @@
       <c r="N6" s="13"/>
       <c r="O6" s="7"/>
       <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="X6" s="13">
+        <v>25559</v>
+      </c>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="16"/>
+    </row>
+    <row r="7" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1381,8 +1560,18 @@
       <c r="N7" s="13"/>
       <c r="O7" s="7"/>
       <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="16"/>
+    </row>
+    <row r="8" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,8 +1597,22 @@
       <c r="N8" s="13"/>
       <c r="O8" s="7"/>
       <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="13">
+        <v>1.46</v>
+      </c>
+      <c r="S8" s="13">
+        <v>28140</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="16"/>
+    </row>
+    <row r="9" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1435,8 +1638,22 @@
       <c r="N9" s="13"/>
       <c r="O9" s="7"/>
       <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="13">
+        <v>1.58</v>
+      </c>
+      <c r="S9" s="13">
+        <v>8778</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,8 +1683,18 @@
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="5"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="16"/>
+    </row>
+    <row r="11" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1493,8 +1720,18 @@
       <c r="N11" s="13"/>
       <c r="O11" s="7"/>
       <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="16"/>
+    </row>
+    <row r="12" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1520,8 +1757,18 @@
       <c r="N12" s="13"/>
       <c r="O12" s="7"/>
       <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1547,8 +1794,18 @@
       <c r="N13" s="13"/>
       <c r="O13" s="7"/>
       <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="16"/>
+    </row>
+    <row r="14" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1578,8 +1835,22 @@
       <c r="N14" s="13"/>
       <c r="O14" s="7"/>
       <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="5"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="13">
+        <v>1.46</v>
+      </c>
+      <c r="X14" s="13">
+        <v>11081</v>
+      </c>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="16"/>
+    </row>
+    <row r="15" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1605,8 +1876,18 @@
       <c r="N15" s="13"/>
       <c r="O15" s="7"/>
       <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="5"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="16"/>
+    </row>
+    <row r="16" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1636,8 +1917,18 @@
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="16"/>
+    </row>
+    <row r="17" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1663,8 +1954,18 @@
       <c r="N17" s="13"/>
       <c r="O17" s="7"/>
       <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="5"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="16"/>
+    </row>
+    <row r="18" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1694,8 +1995,18 @@
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="16"/>
+    </row>
+    <row r="19" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -1721,8 +2032,18 @@
       <c r="N19" s="13"/>
       <c r="O19" s="7"/>
       <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="5"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="16"/>
+    </row>
+    <row r="20" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1748,8 +2069,18 @@
       <c r="N20" s="13"/>
       <c r="O20" s="7"/>
       <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="5"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="16"/>
+    </row>
+    <row r="21" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -1775,8 +2106,18 @@
       <c r="N21" s="13"/>
       <c r="O21" s="7"/>
       <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="5"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="16"/>
+    </row>
+    <row r="22" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1802,8 +2143,18 @@
       <c r="N22" s="13"/>
       <c r="O22" s="7"/>
       <c r="P22" s="16"/>
-    </row>
-    <row r="23" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="5"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="16"/>
+    </row>
+    <row r="23" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -1829,8 +2180,18 @@
       <c r="N23" s="13"/>
       <c r="O23" s="7"/>
       <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="5"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="16"/>
+    </row>
+    <row r="24" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -1856,8 +2217,18 @@
       <c r="N24" s="13"/>
       <c r="O24" s="7"/>
       <c r="P24" s="16"/>
-    </row>
-    <row r="25" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="16"/>
+    </row>
+    <row r="25" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -1883,8 +2254,18 @@
       <c r="N25" s="13"/>
       <c r="O25" s="7"/>
       <c r="P25" s="16"/>
-    </row>
-    <row r="26" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="5"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="16"/>
+    </row>
+    <row r="26" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -1910,8 +2291,18 @@
       <c r="N26" s="13"/>
       <c r="O26" s="7"/>
       <c r="P26" s="16"/>
-    </row>
-    <row r="27" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="5"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="16"/>
+    </row>
+    <row r="27" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -1937,8 +2328,18 @@
       <c r="N27" s="13"/>
       <c r="O27" s="7"/>
       <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q27" s="5"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="16"/>
+    </row>
+    <row r="28" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -1964,8 +2365,18 @@
       <c r="N28" s="13"/>
       <c r="O28" s="7"/>
       <c r="P28" s="16"/>
-    </row>
-    <row r="29" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="5"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="16"/>
+    </row>
+    <row r="29" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -1991,8 +2402,18 @@
       <c r="N29" s="13"/>
       <c r="O29" s="7"/>
       <c r="P29" s="16"/>
-    </row>
-    <row r="30" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="16"/>
+    </row>
+    <row r="30" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -2018,8 +2439,18 @@
       <c r="N30" s="13"/>
       <c r="O30" s="7"/>
       <c r="P30" s="16"/>
-    </row>
-    <row r="31" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="5"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="16"/>
+    </row>
+    <row r="31" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -2045,8 +2476,18 @@
       <c r="N31" s="13"/>
       <c r="O31" s="7"/>
       <c r="P31" s="16"/>
-    </row>
-    <row r="32" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="5"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="16"/>
+    </row>
+    <row r="32" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -2076,8 +2517,18 @@
       <c r="N32" s="13"/>
       <c r="O32" s="7"/>
       <c r="P32" s="16"/>
-    </row>
-    <row r="33" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q32" s="5"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="16"/>
+    </row>
+    <row r="33" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
@@ -2103,8 +2554,18 @@
       <c r="N33" s="13"/>
       <c r="O33" s="7"/>
       <c r="P33" s="16"/>
-    </row>
-    <row r="34" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q33" s="5"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="16"/>
+    </row>
+    <row r="34" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -2134,8 +2595,18 @@
       <c r="N34" s="13"/>
       <c r="O34" s="7"/>
       <c r="P34" s="16"/>
-    </row>
-    <row r="35" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="5"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="16"/>
+    </row>
+    <row r="35" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>88</v>
       </c>
@@ -2161,8 +2632,18 @@
       <c r="N35" s="13"/>
       <c r="O35" s="7"/>
       <c r="P35" s="16"/>
-    </row>
-    <row r="36" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q35" s="5"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="16"/>
+    </row>
+    <row r="36" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
@@ -2188,8 +2669,22 @@
       <c r="N36" s="13"/>
       <c r="O36" s="7"/>
       <c r="P36" s="16"/>
-    </row>
-    <row r="37" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q36" s="5"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="13">
+        <v>1.79</v>
+      </c>
+      <c r="X36" s="13">
+        <v>28305</v>
+      </c>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="16"/>
+    </row>
+    <row r="37" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
@@ -2215,8 +2710,18 @@
       <c r="N37" s="13"/>
       <c r="O37" s="7"/>
       <c r="P37" s="16"/>
-    </row>
-    <row r="38" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q37" s="5"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="16"/>
+    </row>
+    <row r="38" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -2242,8 +2747,18 @@
       <c r="N38" s="13"/>
       <c r="O38" s="7"/>
       <c r="P38" s="16"/>
-    </row>
-    <row r="39" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q38" s="5"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="16"/>
+    </row>
+    <row r="39" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>96</v>
       </c>
@@ -2269,8 +2784,18 @@
       <c r="N39" s="13"/>
       <c r="O39" s="7"/>
       <c r="P39" s="16"/>
-    </row>
-    <row r="40" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q39" s="5"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="16"/>
+    </row>
+    <row r="40" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
@@ -2300,8 +2825,18 @@
       <c r="N40" s="13"/>
       <c r="O40" s="7"/>
       <c r="P40" s="16"/>
-    </row>
-    <row r="41" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q40" s="5"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="16"/>
+    </row>
+    <row r="41" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -2327,8 +2862,18 @@
       <c r="N41" s="13"/>
       <c r="O41" s="7"/>
       <c r="P41" s="16"/>
-    </row>
-    <row r="42" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q41" s="5"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="16"/>
+    </row>
+    <row r="42" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>102</v>
       </c>
@@ -2354,8 +2899,18 @@
       <c r="N42" s="13"/>
       <c r="O42" s="7"/>
       <c r="P42" s="16"/>
-    </row>
-    <row r="43" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q42" s="5"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="16"/>
+    </row>
+    <row r="43" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>104</v>
       </c>
@@ -2381,8 +2936,18 @@
       <c r="N43" s="13"/>
       <c r="O43" s="7"/>
       <c r="P43" s="16"/>
-    </row>
-    <row r="44" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q43" s="5"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="16"/>
+    </row>
+    <row r="44" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
@@ -2408,8 +2973,18 @@
       <c r="N44" s="13"/>
       <c r="O44" s="7"/>
       <c r="P44" s="16"/>
-    </row>
-    <row r="45" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q44" s="5"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="16"/>
+    </row>
+    <row r="45" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -2435,8 +3010,18 @@
       <c r="N45" s="13"/>
       <c r="O45" s="7"/>
       <c r="P45" s="16"/>
-    </row>
-    <row r="46" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q45" s="5"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="16"/>
+    </row>
+    <row r="46" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>109</v>
       </c>
@@ -2462,8 +3047,18 @@
       <c r="N46" s="13"/>
       <c r="O46" s="7"/>
       <c r="P46" s="16"/>
-    </row>
-    <row r="47" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q46" s="5"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="16"/>
+    </row>
+    <row r="47" spans="1:26" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>111</v>
       </c>
@@ -2489,8 +3084,18 @@
       <c r="N47" s="13"/>
       <c r="O47" s="7"/>
       <c r="P47" s="16"/>
-    </row>
-    <row r="48" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q47" s="5"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="16"/>
+    </row>
+    <row r="48" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>112</v>
       </c>
@@ -2516,8 +3121,18 @@
       <c r="N48" s="13"/>
       <c r="O48" s="7"/>
       <c r="P48" s="16"/>
-    </row>
-    <row r="49" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q48" s="5"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="16"/>
+    </row>
+    <row r="49" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>115</v>
       </c>
@@ -2543,8 +3158,18 @@
       <c r="N49" s="13"/>
       <c r="O49" s="7"/>
       <c r="P49" s="16"/>
-    </row>
-    <row r="50" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q49" s="5"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="16"/>
+    </row>
+    <row r="50" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
@@ -2570,9 +3195,25 @@
       <c r="N50" s="13"/>
       <c r="O50" s="8"/>
       <c r="P50" s="17"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="Q2:Q50"/>
+    <mergeCell ref="T2:T50"/>
+    <mergeCell ref="U2:U50"/>
+    <mergeCell ref="V2:V50"/>
+    <mergeCell ref="Y2:Y50"/>
+    <mergeCell ref="Z2:Z50"/>
     <mergeCell ref="G2:G50"/>
     <mergeCell ref="J2:J50"/>
     <mergeCell ref="L2:L50"/>
